--- a/data/trans_orig/P19C04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C04-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>39078</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29187</v>
+        <v>28330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52866</v>
+        <v>52436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1087313062602013</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08121001741786447</v>
+        <v>0.07882668456948015</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1470954138093148</v>
+        <v>0.1458987637144153</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -765,19 +765,19 @@
         <v>28867</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19839</v>
+        <v>20235</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>39623</v>
+        <v>40589</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07672359124011351</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05272768872021234</v>
+        <v>0.05378124916040593</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1053091418176352</v>
+        <v>0.1078773449757386</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -786,19 +786,19 @@
         <v>67946</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>53967</v>
+        <v>55240</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>86004</v>
+        <v>85050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09236086476549614</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07335918240910447</v>
+        <v>0.07508971674297112</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1169079973655151</v>
+        <v>0.1156120612560114</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>320323</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>306535</v>
+        <v>306965</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>330214</v>
+        <v>331071</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8912686937397987</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8529045861906849</v>
+        <v>0.8541012362855848</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.918789982582135</v>
+        <v>0.9211733154305198</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>363</v>
@@ -836,19 +836,19 @@
         <v>347385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>336629</v>
+        <v>335663</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>356413</v>
+        <v>356017</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9232764087598865</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8946908581823654</v>
+        <v>0.8921226550242618</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9472723112797878</v>
+        <v>0.9462187508395941</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>686</v>
@@ -857,19 +857,19 @@
         <v>667707</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>649649</v>
+        <v>650603</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>681686</v>
+        <v>680413</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9076391352345039</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8830920026344848</v>
+        <v>0.8843879387439885</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9266408175908956</v>
+        <v>0.9249102832570288</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>80735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>65248</v>
+        <v>63040</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>98484</v>
+        <v>97632</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1402190094276388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1133214950140024</v>
+        <v>0.1094858969498591</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1710435590778045</v>
+        <v>0.1695650314412924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -982,19 +982,19 @@
         <v>59543</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45110</v>
+        <v>46146</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74558</v>
+        <v>75775</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1087135737154573</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08236100296157149</v>
+        <v>0.08425300824983437</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1361274078647174</v>
+        <v>0.1383485869980061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>132</v>
@@ -1003,19 +1003,19 @@
         <v>140279</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>119908</v>
+        <v>118827</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165315</v>
+        <v>165269</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1248599126148016</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1067283420646478</v>
+        <v>0.105765882952754</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1471443430417981</v>
+        <v>0.1471035100292271</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>495046</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>477297</v>
+        <v>478149</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>510533</v>
+        <v>512741</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8597809905723611</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8289564409221956</v>
+        <v>0.8304349685587077</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8866785049859975</v>
+        <v>0.8905141030501409</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>463</v>
@@ -1053,19 +1053,19 @@
         <v>488165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>473150</v>
+        <v>471933</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>502598</v>
+        <v>501562</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8912864262845427</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8638725921352823</v>
+        <v>0.8616514130019939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9176389970384284</v>
+        <v>0.9157469917501655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>941</v>
@@ -1074,19 +1074,19 @@
         <v>983210</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>958174</v>
+        <v>958220</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003581</v>
+        <v>1004662</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8751400873851983</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.852855656958202</v>
+        <v>0.8528964899707729</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8932716579353522</v>
+        <v>0.894234117047246</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>92873</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>76711</v>
+        <v>76190</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>111239</v>
+        <v>110846</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1846631155076498</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.152526911352266</v>
+        <v>0.1514909285708691</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2211806154883721</v>
+        <v>0.2203982298419692</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -1199,19 +1199,19 @@
         <v>77868</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63487</v>
+        <v>63381</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97377</v>
+        <v>97708</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1290132163497929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1051870053036837</v>
+        <v>0.1050108991486752</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1613367373529423</v>
+        <v>0.1618840006316748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>168</v>
@@ -1220,19 +1220,19 @@
         <v>170741</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>148171</v>
+        <v>147620</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>196282</v>
+        <v>195619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.154307586418158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1339099360250474</v>
+        <v>0.1334117174833716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1773905807605425</v>
+        <v>0.1767908809669949</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>410060</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>391694</v>
+        <v>392087</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>426222</v>
+        <v>426743</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8153368844923502</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7788193845116279</v>
+        <v>0.7796017701580309</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8474730886477341</v>
+        <v>0.848509071429131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>500</v>
@@ -1270,19 +1270,19 @@
         <v>525697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>506188</v>
+        <v>505857</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540078</v>
+        <v>540184</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8709867836502071</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8386632626470576</v>
+        <v>0.8381159993683251</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8948129946963158</v>
+        <v>0.8949891008513249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>893</v>
@@ -1291,19 +1291,19 @@
         <v>935756</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>910215</v>
+        <v>910878</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>958326</v>
+        <v>958877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.845692413581842</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8226094192394575</v>
+        <v>0.8232091190330058</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8660900639749525</v>
+        <v>0.8665882825166286</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>111475</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>94163</v>
+        <v>94806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>130045</v>
+        <v>131052</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2754186929866788</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2326470617531616</v>
+        <v>0.2342344985650237</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3212997123992215</v>
+        <v>0.3237859704577542</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -1416,19 +1416,19 @@
         <v>87820</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>71496</v>
+        <v>71584</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>104206</v>
+        <v>105357</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1999605630184657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1627925846099606</v>
+        <v>0.1629925509987833</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2372708224825702</v>
+        <v>0.2398930685634374</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>191</v>
@@ -1437,19 +1437,19 @@
         <v>199295</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>175856</v>
+        <v>176758</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>223524</v>
+        <v>224533</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2361500780611771</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2083769226005582</v>
+        <v>0.2094457930962157</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2648593495403275</v>
+        <v>0.2660551724246498</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>293273</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>274703</v>
+        <v>273696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>310585</v>
+        <v>309942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7245813070133212</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6787002876007785</v>
+        <v>0.6762140295422457</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7673529382468383</v>
+        <v>0.7657655014349762</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>343</v>
@@ -1487,19 +1487,19 @@
         <v>351365</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>334979</v>
+        <v>333828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>367689</v>
+        <v>367601</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8000394369815343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7627291775174299</v>
+        <v>0.7601069314365625</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8372074153900393</v>
+        <v>0.837007449001216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>618</v>
@@ -1508,19 +1508,19 @@
         <v>644638</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>620409</v>
+        <v>619400</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>668077</v>
+        <v>667175</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7638499219388228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7351406504596725</v>
+        <v>0.7339448275753502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7916230773994417</v>
+        <v>0.7905542069037842</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>71583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>58863</v>
+        <v>58760</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>87707</v>
+        <v>85331</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2628351042453003</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2161300980825868</v>
+        <v>0.2157520886127187</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3220404465740929</v>
+        <v>0.3133154308671687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -1633,19 +1633,19 @@
         <v>64573</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51643</v>
+        <v>50521</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79331</v>
+        <v>80044</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.202370483112678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.16184797652969</v>
+        <v>0.1583311034533335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2486233019584845</v>
+        <v>0.2508565234144592</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>139</v>
@@ -1654,19 +1654,19 @@
         <v>136156</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>116824</v>
+        <v>116718</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>156604</v>
+        <v>158306</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2302139779835791</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1975277281018281</v>
+        <v>0.1973477914800608</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2647883111408038</v>
+        <v>0.2676667262714415</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>200766</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>184642</v>
+        <v>187018</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>213486</v>
+        <v>213589</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7371648957546997</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6779595534259071</v>
+        <v>0.6866845691328313</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7838699019174132</v>
+        <v>0.7842479113872813</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -1704,19 +1704,19 @@
         <v>254509</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>239751</v>
+        <v>239038</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>267439</v>
+        <v>268561</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.797629516887322</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7513766980415155</v>
+        <v>0.7491434765855407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8381520234703101</v>
+        <v>0.8416688965466665</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>449</v>
@@ -1725,19 +1725,19 @@
         <v>455275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>434827</v>
+        <v>433125</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>474607</v>
+        <v>474713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.769786022016421</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7352116888591964</v>
+        <v>0.7323332737285594</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8024722718981719</v>
+        <v>0.8026522085199391</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>62656</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49246</v>
+        <v>50798</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75317</v>
+        <v>76512</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2944832183020764</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2314586296815957</v>
+        <v>0.2387526088727736</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3539910105150059</v>
+        <v>0.359608433027662</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -1850,19 +1850,19 @@
         <v>49213</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39052</v>
+        <v>38323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63644</v>
+        <v>61060</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.199294913209896</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1581454501960137</v>
+        <v>0.1551928267280339</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2577307969048274</v>
+        <v>0.2472679347614909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>117</v>
@@ -1871,19 +1871,19 @@
         <v>111869</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>94339</v>
+        <v>97114</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>129534</v>
+        <v>131527</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2433510882246807</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2052162478909315</v>
+        <v>0.2112543115948335</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2817776368047165</v>
+        <v>0.2861135424005159</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>150109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>137448</v>
+        <v>136253</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>163519</v>
+        <v>161967</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7055167816979236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6460089894849941</v>
+        <v>0.6403915669723379</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7685413703184044</v>
+        <v>0.7612473911272264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>214</v>
@@ -1921,19 +1921,19 @@
         <v>197725</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183294</v>
+        <v>185878</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>207886</v>
+        <v>208615</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.800705086790104</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7422692030951725</v>
+        <v>0.7527320652385091</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8418545498039863</v>
+        <v>0.8448071732719661</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>369</v>
@@ -1942,19 +1942,19 @@
         <v>347834</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>330169</v>
+        <v>328176</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>365364</v>
+        <v>362589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7566489117753192</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7182223631952835</v>
+        <v>0.713886457599484</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7947837521090683</v>
+        <v>0.7887456884051663</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>31292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22788</v>
+        <v>21583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>43131</v>
+        <v>41292</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.246851738374721</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1797682769498711</v>
+        <v>0.1702634350058953</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3402432963007334</v>
+        <v>0.3257391167469527</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2067,19 +2067,19 @@
         <v>34678</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>24588</v>
+        <v>24229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47347</v>
+        <v>47109</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1665543033549395</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1180910918272189</v>
+        <v>0.1163698259431971</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2274020170889413</v>
+        <v>0.22626069557331</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>61</v>
@@ -2088,19 +2088,19 @@
         <v>65970</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>51124</v>
+        <v>51503</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>81129</v>
+        <v>81648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1969413939257914</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1526228980320115</v>
+        <v>0.1537530149927106</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2421971052712916</v>
+        <v>0.2437459891348833</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>95472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>83633</v>
+        <v>85472</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>103976</v>
+        <v>105181</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.753148261625279</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6597567036992664</v>
+        <v>0.6742608832530473</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8202317230501289</v>
+        <v>0.8297365649941048</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>152</v>
@@ -2138,19 +2138,19 @@
         <v>173530</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>160861</v>
+        <v>161099</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>183620</v>
+        <v>183979</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8334456966450604</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7725979829110591</v>
+        <v>0.77373930442669</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8819089081727811</v>
+        <v>0.8836301740568029</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>251</v>
@@ -2159,19 +2159,19 @@
         <v>269002</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>253843</v>
+        <v>253324</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>283848</v>
+        <v>283469</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8030586060742085</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7578028947287085</v>
+        <v>0.7562540108651167</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8473771019679887</v>
+        <v>0.8462469850072893</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>489693</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>454106</v>
+        <v>445001</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>530016</v>
+        <v>528579</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1994884374704375</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1849912660879745</v>
+        <v>0.181282087866105</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2159149883741565</v>
+        <v>0.2153297763123301</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>395</v>
@@ -2284,19 +2284,19 @@
         <v>402562</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>366476</v>
+        <v>365000</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>437345</v>
+        <v>442223</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1468703088849137</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1337047962928535</v>
+        <v>0.1331661033531513</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.159560476134776</v>
+        <v>0.1613402266705299</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>879</v>
@@ -2305,19 +2305,19 @@
         <v>892255</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>836910</v>
+        <v>837254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>946400</v>
+        <v>944921</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1717301817827289</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1610781420876225</v>
+        <v>0.1611443401465999</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1821513555475823</v>
+        <v>0.1818666092855431</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1965049</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1924726</v>
+        <v>1926163</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2000636</v>
+        <v>2009741</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8005115625295626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7840850116258432</v>
+        <v>0.7846702236876698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.815008733912025</v>
+        <v>0.8187179121338949</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2284</v>
@@ -2355,19 +2355,19 @@
         <v>2338375</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2303592</v>
+        <v>2298714</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2374461</v>
+        <v>2375937</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8531296911150863</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.840439523865224</v>
+        <v>0.8386597733294703</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8662952037071465</v>
+        <v>0.8668338966468488</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4207</v>
@@ -2376,19 +2376,19 @@
         <v>4303424</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4249279</v>
+        <v>4250758</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4358769</v>
+        <v>4358425</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8282698182172711</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8178486444524178</v>
+        <v>0.818133390714457</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8389218579123776</v>
+        <v>0.8388556598534002</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>52093</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40011</v>
+        <v>40360</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>66882</v>
+        <v>66772</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1373846858228784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1055211382215833</v>
+        <v>0.1064417938649311</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1763890134857776</v>
+        <v>0.1760973568789518</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -2744,19 +2744,19 @@
         <v>48041</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37346</v>
+        <v>36978</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>62761</v>
+        <v>62498</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1294927991157266</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1006660465285474</v>
+        <v>0.0996732502904899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1691716718674931</v>
+        <v>0.1684628448177086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>99</v>
@@ -2765,19 +2765,19 @@
         <v>100134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81656</v>
+        <v>82361</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118920</v>
+        <v>118494</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1334817973027463</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1088506497477374</v>
+        <v>0.1097900184228763</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1585245966844318</v>
+        <v>0.1579566409105748</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>327083</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>312294</v>
+        <v>312404</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>339165</v>
+        <v>338816</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8626153141771216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8236109865142225</v>
+        <v>0.8239026431210481</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8944788617784166</v>
+        <v>0.893558206135069</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>315</v>
@@ -2815,19 +2815,19 @@
         <v>322950</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>308230</v>
+        <v>308493</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333645</v>
+        <v>334013</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8705072008842734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8308283281325068</v>
+        <v>0.8315371551822913</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8993339534714525</v>
+        <v>0.9003267497095101</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>636</v>
@@ -2836,19 +2836,19 @@
         <v>650032</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>631246</v>
+        <v>631672</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>668510</v>
+        <v>667805</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8665182026972538</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8414754033155682</v>
+        <v>0.8420433590894254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8911493502522626</v>
+        <v>0.8902099815771238</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>110089</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>92469</v>
+        <v>90204</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>130842</v>
+        <v>129277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1843217785302379</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1548208921728428</v>
+        <v>0.1510278985485372</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2190673253685469</v>
+        <v>0.216447949853624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -2961,19 +2961,19 @@
         <v>65765</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50593</v>
+        <v>52341</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>81262</v>
+        <v>83359</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1179118411254991</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09070950387776301</v>
+        <v>0.09384328242522305</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1456972806452334</v>
+        <v>0.1494574374276455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>171</v>
@@ -2982,19 +2982,19 @@
         <v>175854</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>151508</v>
+        <v>150738</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>202388</v>
+        <v>200203</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1522529961131556</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1311742879389067</v>
+        <v>0.1305076649893924</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1752261192673987</v>
+        <v>0.173334189050135</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>487178</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466425</v>
+        <v>467990</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>504798</v>
+        <v>507063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8156782214697621</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7809326746314531</v>
+        <v>0.7835520501463761</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8451791078271572</v>
+        <v>0.8489721014514627</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>457</v>
@@ -3032,19 +3032,19 @@
         <v>491980</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476483</v>
+        <v>474386</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>507152</v>
+        <v>505404</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8820881588745009</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8543027193547664</v>
+        <v>0.8505425625723547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9092904961222369</v>
+        <v>0.9061567175747769</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>930</v>
@@ -3053,19 +3053,19 @@
         <v>979158</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>952624</v>
+        <v>954809</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1003504</v>
+        <v>1004274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8477470038868444</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8247738807326014</v>
+        <v>0.8266658109498649</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8688257120610937</v>
+        <v>0.8694923350106075</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>133982</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114966</v>
+        <v>112430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156261</v>
+        <v>156575</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2283847488874219</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1959699233101817</v>
+        <v>0.1916475880433967</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2663608252161721</v>
+        <v>0.2668963300024663</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>90</v>
@@ -3178,19 +3178,19 @@
         <v>94864</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>76690</v>
+        <v>77192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>113991</v>
+        <v>114359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1438522409891979</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1162927367011567</v>
+        <v>0.1170549642422418</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1728563407680958</v>
+        <v>0.1734141399700662</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>219</v>
@@ -3199,19 +3199,19 @@
         <v>228846</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198284</v>
+        <v>203308</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>254683</v>
+        <v>261038</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.183649120803979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1591228960266225</v>
+        <v>0.1631549692129291</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2043834058774186</v>
+        <v>0.2094831407158902</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>452669</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430390</v>
+        <v>430076</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471685</v>
+        <v>474221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7716152511125781</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7336391747838279</v>
+        <v>0.7331036699975332</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8040300766898183</v>
+        <v>0.8083524119566032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>531</v>
@@ -3249,19 +3249,19 @@
         <v>564590</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>545463</v>
+        <v>545095</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>582764</v>
+        <v>582262</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8561477590108021</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8271436592319041</v>
+        <v>0.8265858600299337</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8837072632988433</v>
+        <v>0.8829450357577582</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>965</v>
@@ -3270,19 +3270,19 @@
         <v>1017258</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>991421</v>
+        <v>985066</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1047820</v>
+        <v>1042796</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.816350879196021</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7956165941225815</v>
+        <v>0.7905168592841098</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8408771039733776</v>
+        <v>0.8368450307870708</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>134285</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>113735</v>
+        <v>115688</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>156660</v>
+        <v>157271</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2473756653268064</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2095185482400181</v>
+        <v>0.2131174363776604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2885934576913037</v>
+        <v>0.2897195819863555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -3395,19 +3395,19 @@
         <v>102619</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83918</v>
+        <v>81567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>123203</v>
+        <v>121148</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1821590096558221</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1489626991025028</v>
+        <v>0.1447898284654448</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2186965146262377</v>
+        <v>0.2150495720129012</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -3416,19 +3416,19 @@
         <v>236905</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>208091</v>
+        <v>210321</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>269833</v>
+        <v>267995</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2141627058898772</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1881148683886062</v>
+        <v>0.1901312581801271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.243929669120179</v>
+        <v>0.2422685346995275</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>408554</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>386179</v>
+        <v>385568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>429104</v>
+        <v>427151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7526243346731936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7114065423086964</v>
+        <v>0.7102804180136446</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.790481451759982</v>
+        <v>0.7868825636223397</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>403</v>
@@ -3466,19 +3466,19 @@
         <v>460732</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>440148</v>
+        <v>442203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>479433</v>
+        <v>481784</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8178409903441779</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7813034853737622</v>
+        <v>0.7849504279870989</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8510373008974972</v>
+        <v>0.8552101715345554</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>763</v>
@@ -3487,19 +3487,19 @@
         <v>869285</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>836357</v>
+        <v>838195</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>898099</v>
+        <v>895869</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7858372941101228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.756070330879821</v>
+        <v>0.7577314653004723</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8118851316113942</v>
+        <v>0.8098687418198728</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>114826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95293</v>
+        <v>97160</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134057</v>
+        <v>133420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3178042321153615</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2637437977702166</v>
+        <v>0.2689116567431621</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3710300631212551</v>
+        <v>0.3692669841788209</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>79</v>
@@ -3612,19 +3612,19 @@
         <v>87292</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69407</v>
+        <v>69983</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>104320</v>
+        <v>104116</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2240042866528311</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1781097055596994</v>
+        <v>0.1795877192712761</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2677008429521613</v>
+        <v>0.2671781653419158</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>186</v>
@@ -3633,19 +3633,19 @@
         <v>202117</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179228</v>
+        <v>176741</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>227680</v>
+        <v>228045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2691320690400941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2386539260105911</v>
+        <v>0.2353415974570235</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3031706180512582</v>
+        <v>0.3036565846295919</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>246484</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>227253</v>
+        <v>227890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>266017</v>
+        <v>264150</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6821957678846385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6289699368787449</v>
+        <v>0.6307330158211791</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7362562022297833</v>
+        <v>0.7310883432568379</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>273</v>
@@ -3683,19 +3683,19 @@
         <v>302395</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>285367</v>
+        <v>285571</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>320280</v>
+        <v>319704</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7759957133471689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7322991570478387</v>
+        <v>0.7328218346580843</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8218902944403008</v>
+        <v>0.820412280728724</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>499</v>
@@ -3704,19 +3704,19 @@
         <v>548880</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>523317</v>
+        <v>522952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>571769</v>
+        <v>574256</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7308679309599059</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6968293819487421</v>
+        <v>0.6963434153704083</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7613460739894089</v>
+        <v>0.7646584025429766</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>101381</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>85576</v>
+        <v>85783</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>119583</v>
+        <v>120343</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3862286165367456</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3260166401829291</v>
+        <v>0.3268046354579727</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4555719273831664</v>
+        <v>0.4584675432679559</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>70</v>
@@ -3829,19 +3829,19 @@
         <v>71577</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57082</v>
+        <v>57618</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>87117</v>
+        <v>86350</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2381210704120311</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1899014453110269</v>
+        <v>0.1916851781838332</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2898210873200444</v>
+        <v>0.2872705388713789</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>163</v>
@@ -3850,19 +3850,19 @@
         <v>172958</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>151909</v>
+        <v>148507</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>195420</v>
+        <v>196420</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3071642820723823</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2697823867410131</v>
+        <v>0.2637402968898376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3470565385279288</v>
+        <v>0.3488326515826174</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>161109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142907</v>
+        <v>142147</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176914</v>
+        <v>176707</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6137713834632543</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5444280726168337</v>
+        <v>0.5415324567320439</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6739833598170709</v>
+        <v>0.6731953645420271</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>221</v>
@@ -3900,19 +3900,19 @@
         <v>229012</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>213472</v>
+        <v>214239</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>243507</v>
+        <v>242971</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7618789295879689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7101789126799556</v>
+        <v>0.7127294611286208</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8100985546889731</v>
+        <v>0.8083148218161668</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>367</v>
@@ -3921,19 +3921,19 @@
         <v>390121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>367659</v>
+        <v>366659</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>411170</v>
+        <v>414572</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6928357179276177</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6529434614720714</v>
+        <v>0.6511673484173827</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.730217613258987</v>
+        <v>0.7362597031101624</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>73541</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>59554</v>
+        <v>60664</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>88573</v>
+        <v>87923</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3976771393902809</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3220433792824959</v>
+        <v>0.3280420393396255</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4789671750056868</v>
+        <v>0.475447664167941</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -4046,19 +4046,19 @@
         <v>81708</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>66148</v>
+        <v>66574</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>97341</v>
+        <v>97048</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.269303979968762</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.218019551096626</v>
+        <v>0.2194241864556374</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3208287609903832</v>
+        <v>0.3198614505092284</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>137</v>
@@ -4067,19 +4067,19 @@
         <v>155249</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>135434</v>
+        <v>135852</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>177670</v>
+        <v>176175</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3179176068201029</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2773411569132082</v>
+        <v>0.2781966984904343</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3638312834567435</v>
+        <v>0.3607705433949742</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>111385</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96353</v>
+        <v>97003</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>125372</v>
+        <v>124262</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6023228606097191</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5210328249943127</v>
+        <v>0.524552335832059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6779566207175041</v>
+        <v>0.6719579606603745</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>200</v>
@@ -4117,19 +4117,19 @@
         <v>221697</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>206064</v>
+        <v>206357</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>237257</v>
+        <v>236831</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.730696020031238</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.679171239009617</v>
+        <v>0.6801385494907725</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7819804489033741</v>
+        <v>0.7805758135443632</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>302</v>
@@ -4138,19 +4138,19 @@
         <v>333082</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>310661</v>
+        <v>312156</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>352897</v>
+        <v>352479</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6820823931798971</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6361687165432566</v>
+        <v>0.6392294566050258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7226588430867917</v>
+        <v>0.7218033015095657</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>720197</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>672605</v>
+        <v>674171</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>771564</v>
+        <v>769868</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2470949374470533</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2307662041267554</v>
+        <v>0.2313034871831457</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2647185595867428</v>
+        <v>0.2641367180323813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>514</v>
@@ -4263,19 +4263,19 @@
         <v>551865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>510450</v>
+        <v>510922</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>598233</v>
+        <v>597030</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1754614156441599</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1622938702937434</v>
+        <v>0.1624439416612224</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1902036937245718</v>
+        <v>0.1898212078857305</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1188</v>
@@ -4284,19 +4284,19 @@
         <v>1272062</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1209548</v>
+        <v>1205270</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1340557</v>
+        <v>1337420</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2099154437925402</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1995993593062257</v>
+        <v>0.1988933383356389</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2212184333310712</v>
+        <v>0.2207007545965525</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2194462</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2143095</v>
+        <v>2144791</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2242054</v>
+        <v>2240488</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7529050625529466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.735281440413257</v>
+        <v>0.7358632819676187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7692337958732443</v>
+        <v>0.7686965128168544</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2400</v>
@@ -4334,19 +4334,19 @@
         <v>2593356</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2546988</v>
+        <v>2548191</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2634771</v>
+        <v>2634299</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.82453858435584</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.809796306275428</v>
+        <v>0.8101787921142695</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8377061297062566</v>
+        <v>0.8375560583387771</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4462</v>
@@ -4355,19 +4355,19 @@
         <v>4787817</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4719322</v>
+        <v>4722459</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4850331</v>
+        <v>4854609</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7900845562074599</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7787815666689287</v>
+        <v>0.7792992454034475</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8004006406937744</v>
+        <v>0.8011066616643612</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>32521</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>22657</v>
+        <v>22654</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45376</v>
+        <v>45079</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09216861540536904</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06421387163971227</v>
+        <v>0.06420445651602938</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1286028306161428</v>
+        <v>0.127760957296415</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -4723,19 +4723,19 @@
         <v>29973</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20578</v>
+        <v>20839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41763</v>
+        <v>41495</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08516698185196124</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05847252564982114</v>
+        <v>0.05921353340062387</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1186689028846322</v>
+        <v>0.1179078641547312</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -4744,19 +4744,19 @@
         <v>62494</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>47646</v>
+        <v>48222</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>78719</v>
+        <v>78477</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08867231605857591</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06760511624141201</v>
+        <v>0.06842218736791567</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.111694837666799</v>
+        <v>0.1113514350033926</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>320319</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>307464</v>
+        <v>307761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>330183</v>
+        <v>330186</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.907831384594631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8713971693838573</v>
+        <v>0.8722390427035851</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9357861283602877</v>
+        <v>0.9357955434839706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>329</v>
@@ -4794,19 +4794,19 @@
         <v>321957</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>310167</v>
+        <v>310435</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>331352</v>
+        <v>331091</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9148330181480387</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8813310971153675</v>
+        <v>0.8820921358452689</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9415274743501788</v>
+        <v>0.9407864665993763</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>630</v>
@@ -4815,19 +4815,19 @@
         <v>642276</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>626051</v>
+        <v>626293</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>657124</v>
+        <v>656548</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.911327683941424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.888305162333201</v>
+        <v>0.8886485649966074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.932394883758588</v>
+        <v>0.9315778126320842</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>70533</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56069</v>
+        <v>56045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87626</v>
+        <v>88505</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1430458684039072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1137113649681271</v>
+        <v>0.1136641866657967</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1777114871613273</v>
+        <v>0.1794943755606899</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -4940,19 +4940,19 @@
         <v>59872</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47624</v>
+        <v>46439</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75934</v>
+        <v>74073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1205351597173001</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09587779168853879</v>
+        <v>0.09349195696683688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1528708665046311</v>
+        <v>0.1491240132783051</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>128</v>
@@ -4961,19 +4961,19 @@
         <v>130405</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109354</v>
+        <v>109008</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152520</v>
+        <v>151559</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1317491000969616</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.110481716763959</v>
+        <v>0.1101314718193499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1540926992811384</v>
+        <v>0.1531210094074956</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>422545</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>405452</v>
+        <v>404573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>437009</v>
+        <v>437033</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8569541315960928</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8222885128386727</v>
+        <v>0.8205056244393101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8862886350318729</v>
+        <v>0.8863358133342033</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>448</v>
@@ -5011,19 +5011,19 @@
         <v>436848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>420786</v>
+        <v>422647</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>449096</v>
+        <v>450281</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8794648402826999</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.847129133495369</v>
+        <v>0.850875986721695</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9041222083114612</v>
+        <v>0.9065080430331632</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>857</v>
@@ -5032,19 +5032,19 @@
         <v>859392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>837277</v>
+        <v>838238</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>880443</v>
+        <v>880789</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8682508999030384</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8459073007188616</v>
+        <v>0.8468789905925045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.889518283236041</v>
+        <v>0.8898685281806502</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>78975</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>63546</v>
+        <v>64585</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>97669</v>
+        <v>97418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1415684483837857</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1139099691930805</v>
+        <v>0.1157731915275925</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1750775746935862</v>
+        <v>0.1746276173636199</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>60</v>
@@ -5157,19 +5157,19 @@
         <v>60119</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47767</v>
+        <v>46941</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75471</v>
+        <v>75359</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1049055322709846</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08335073878000855</v>
+        <v>0.08190967832189035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1316941376161194</v>
+        <v>0.131498407075205</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>136</v>
@@ -5178,19 +5178,19 @@
         <v>139095</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>119945</v>
+        <v>118302</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164086</v>
+        <v>160946</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1229902798202423</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1060577956367893</v>
+        <v>0.1046052465017356</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1450879555664946</v>
+        <v>0.1423118464224662</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>478885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460191</v>
+        <v>460442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>494314</v>
+        <v>493275</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8584315516162143</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8249224253064137</v>
+        <v>0.8253723826363801</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8860900308069195</v>
+        <v>0.8842268084724074</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -5228,19 +5228,19 @@
         <v>512961</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>497609</v>
+        <v>497721</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>525313</v>
+        <v>526139</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8950944677290155</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8683058623838809</v>
+        <v>0.8685015929247948</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9166492612199915</v>
+        <v>0.9180903216781094</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>971</v>
@@ -5249,19 +5249,19 @@
         <v>991845</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>966854</v>
+        <v>969994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1010995</v>
+        <v>1012638</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8770097201797576</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8549120444335059</v>
+        <v>0.8576881535775339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8939422043632108</v>
+        <v>0.8953947534982645</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>91910</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74320</v>
+        <v>76943</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>110330</v>
+        <v>113706</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1793818119091974</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1450514453536341</v>
+        <v>0.1501711322789013</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2153310792264659</v>
+        <v>0.221921667380571</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -5374,19 +5374,19 @@
         <v>64862</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>49941</v>
+        <v>50017</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>81469</v>
+        <v>81000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1190379537497996</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.09165461423913501</v>
+        <v>0.0917933769973711</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1495163130460122</v>
+        <v>0.1486551301206311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>145</v>
@@ -5395,19 +5395,19 @@
         <v>156772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>134590</v>
+        <v>135673</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>186046</v>
+        <v>185019</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1482820458469569</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1273012876798819</v>
+        <v>0.1283257374649684</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1759710587199761</v>
+        <v>0.1749990687709351</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>420462</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>402042</v>
+        <v>398666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>438052</v>
+        <v>435429</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8206181880908026</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7846689207735342</v>
+        <v>0.778078332619429</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8549485546463665</v>
+        <v>0.8498288677210987</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>447</v>
@@ -5445,19 +5445,19 @@
         <v>480022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>463415</v>
+        <v>463884</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>494943</v>
+        <v>494867</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8809620462502004</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8504836869539878</v>
+        <v>0.8513448698793689</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9083453857608649</v>
+        <v>0.9082066230026288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>825</v>
@@ -5466,19 +5466,19 @@
         <v>900484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>871210</v>
+        <v>872237</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>922666</v>
+        <v>921583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8517179541530432</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8240289412800244</v>
+        <v>0.825000931229065</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8726987123201188</v>
+        <v>0.8716742625350318</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>98525</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>82715</v>
+        <v>80517</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>119392</v>
+        <v>117812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2655656817613221</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2229497282866105</v>
+        <v>0.2170248965870751</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3218105203670978</v>
+        <v>0.3175511347517276</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -5591,19 +5591,19 @@
         <v>52132</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>39621</v>
+        <v>38957</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67333</v>
+        <v>67184</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1320527053691726</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1003620258500038</v>
+        <v>0.09867935835043144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1705577613101622</v>
+        <v>0.170180635068502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -5612,19 +5612,19 @@
         <v>150657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>128737</v>
+        <v>129384</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174203</v>
+        <v>177004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1967364617575509</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1681122917247424</v>
+        <v>0.1689569080005833</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2274844303954663</v>
+        <v>0.2311426682235418</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>272477</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>251610</v>
+        <v>253190</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>288287</v>
+        <v>290485</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.734434318238678</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.678189479632902</v>
+        <v>0.6824488652482725</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7770502717133895</v>
+        <v>0.7829751034129251</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>298</v>
@@ -5662,19 +5662,19 @@
         <v>342647</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>327446</v>
+        <v>327595</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>355158</v>
+        <v>355822</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8679472946308273</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8294422386898377</v>
+        <v>0.8298193649314979</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8996379741499959</v>
+        <v>0.9013206416495683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>540</v>
@@ -5683,19 +5683,19 @@
         <v>615123</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>591577</v>
+        <v>588776</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>637043</v>
+        <v>636396</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8032635382424491</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7725155696045337</v>
+        <v>0.7688573317764587</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8318877082752577</v>
+        <v>0.8310430919994169</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>61957</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49747</v>
+        <v>49462</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>75486</v>
+        <v>75869</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2692334713283895</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2161731557202164</v>
+        <v>0.214936012835857</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3280237471209967</v>
+        <v>0.3296874563554499</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>46</v>
@@ -5808,19 +5808,19 @@
         <v>48984</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37021</v>
+        <v>37340</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62456</v>
+        <v>63634</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1768717364142832</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1336750835869509</v>
+        <v>0.1348249574235474</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.225516921000676</v>
+        <v>0.2297677366412534</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>106</v>
@@ -5829,19 +5829,19 @@
         <v>110942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>92157</v>
+        <v>92075</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>131575</v>
+        <v>129908</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2187882978317247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1817436504050258</v>
+        <v>0.1815803647139736</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2594781960641793</v>
+        <v>0.2561921380368206</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>168168</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>154639</v>
+        <v>154256</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>180378</v>
+        <v>180663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7307665286716105</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6719762528790035</v>
+        <v>0.6703125436445501</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7838268442797838</v>
+        <v>0.7850639871641431</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>214</v>
@@ -5879,19 +5879,19 @@
         <v>227964</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>214492</v>
+        <v>213314</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239927</v>
+        <v>239608</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8231282635857169</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7744830789993241</v>
+        <v>0.7702322633587471</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8663249164130493</v>
+        <v>0.8651750425764526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>380</v>
@@ -5900,19 +5900,19 @@
         <v>396132</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>375499</v>
+        <v>377166</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>414917</v>
+        <v>414999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7812117021682753</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7405218039358206</v>
+        <v>0.7438078619631796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.818256349594974</v>
+        <v>0.8184196352860266</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>41306</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32237</v>
+        <v>31773</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>51832</v>
+        <v>51676</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2808861762204426</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2192112334437999</v>
+        <v>0.2160616984428101</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3524649898422339</v>
+        <v>0.3514026750597464</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -6025,19 +6025,19 @@
         <v>57402</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42270</v>
+        <v>43217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>73539</v>
+        <v>74341</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2518962542752316</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1854933026619271</v>
+        <v>0.1896497874659185</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3227124319214256</v>
+        <v>0.3262316517953675</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>91</v>
@@ -6046,19 +6046,19 @@
         <v>98708</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81944</v>
+        <v>79277</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>117876</v>
+        <v>118589</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2632666425691259</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2185534159436275</v>
+        <v>0.2114409473383751</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3143900473753641</v>
+        <v>0.3162914324553351</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>105751</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95225</v>
+        <v>95381</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>114820</v>
+        <v>115284</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7191138237795573</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.647535010157766</v>
+        <v>0.6485973249402537</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7807887665562001</v>
+        <v>0.78393830155719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>129</v>
@@ -6096,19 +6096,19 @@
         <v>170477</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154340</v>
+        <v>153538</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>185609</v>
+        <v>184662</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7481037457247685</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6772875680785744</v>
+        <v>0.6737683482046321</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8145066973380729</v>
+        <v>0.8103502125340815</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>254</v>
@@ -6117,19 +6117,19 @@
         <v>276228</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>257060</v>
+        <v>256347</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>292992</v>
+        <v>295659</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7367333574308741</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.685609952624636</v>
+        <v>0.6837085675446649</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7814465840563725</v>
+        <v>0.7885590526616248</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>475728</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>442272</v>
+        <v>438722</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>519856</v>
+        <v>515981</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1785542612612699</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1659973409126756</v>
+        <v>0.1646649375421684</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1951168628032931</v>
+        <v>0.193662468053813</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>345</v>
@@ -6242,19 +6242,19 @@
         <v>373344</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>336518</v>
+        <v>339540</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>408958</v>
+        <v>407086</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1302565464725484</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1174082264879975</v>
+        <v>0.1184625522440296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1426818387007105</v>
+        <v>0.1420289076456202</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>799</v>
@@ -6263,19 +6263,19 @@
         <v>849072</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>792978</v>
+        <v>793652</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>904196</v>
+        <v>907452</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1535238745563651</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1433812320449594</v>
+        <v>0.1435031771484751</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1634911105436664</v>
+        <v>0.1640798322708391</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2188605</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2144477</v>
+        <v>2148352</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2222061</v>
+        <v>2225611</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8214457387387301</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8048831371967069</v>
+        <v>0.806337531946187</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8340026590873244</v>
+        <v>0.8353350624578315</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2381</v>
@@ -6313,19 +6313,19 @@
         <v>2492877</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2457263</v>
+        <v>2459135</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2529703</v>
+        <v>2526681</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8697434535274516</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8573181612992895</v>
+        <v>0.8579710923543798</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8825917735120025</v>
+        <v>0.8815374477559706</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4457</v>
@@ -6334,19 +6334,19 @@
         <v>4681482</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4626358</v>
+        <v>4623102</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4737576</v>
+        <v>4736902</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8464761254436349</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8365088894563335</v>
+        <v>0.8359201677291607</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8566187679550405</v>
+        <v>0.8564968228515245</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>30181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16308</v>
+        <v>14953</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>52053</v>
+        <v>52217</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07966286825226232</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04304471555012567</v>
+        <v>0.03946905932921476</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1373948494417843</v>
+        <v>0.1378300719107324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -6702,19 +6702,19 @@
         <v>14848</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6906</v>
+        <v>7660</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>25576</v>
+        <v>26956</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0432591811634513</v>
+        <v>0.04325918116345129</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02011991994948556</v>
+        <v>0.02231756088283914</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07451374797666666</v>
+        <v>0.07853343849403195</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -6723,19 +6723,19 @@
         <v>45029</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27379</v>
+        <v>27456</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69585</v>
+        <v>70234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06235874687989809</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03791573572529153</v>
+        <v>0.03802210891735706</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09636510138344614</v>
+        <v>0.09726398425066933</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>348673</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>326801</v>
+        <v>326637</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362546</v>
+        <v>363901</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9203371317477376</v>
+        <v>0.9203371317477378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8626051505582158</v>
+        <v>0.8621699280892687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9569552844498743</v>
+        <v>0.9605309406707854</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>185</v>
@@ -6773,19 +6773,19 @@
         <v>328392</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>317664</v>
+        <v>316284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>336334</v>
+        <v>335580</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9567408188365486</v>
+        <v>0.9567408188365487</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9254862520233332</v>
+        <v>0.9214665615059677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9798800800505144</v>
+        <v>0.9776824391171607</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>331</v>
@@ -6794,19 +6794,19 @@
         <v>677065</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>652509</v>
+        <v>651860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>694715</v>
+        <v>694638</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9376412531201019</v>
+        <v>0.9376412531201017</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9036348986165538</v>
+        <v>0.9027360157493308</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9620842642747087</v>
+        <v>0.9619778910826429</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>52624</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>36648</v>
+        <v>37801</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72633</v>
+        <v>72910</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1180197808290066</v>
+        <v>0.1180197808290065</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08218908742030569</v>
+        <v>0.0847765320318537</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1628939471516675</v>
+        <v>0.1635148776240624</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>39</v>
@@ -6919,19 +6919,19 @@
         <v>43736</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31974</v>
+        <v>31602</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60595</v>
+        <v>58049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09062382327734644</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0662517351938023</v>
+        <v>0.06548165964670161</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1255579028025534</v>
+        <v>0.1202812425424615</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -6940,19 +6940,19 @@
         <v>96360</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73476</v>
+        <v>73807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118510</v>
+        <v>122259</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1037801335273454</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07913417489549755</v>
+        <v>0.07949001621799105</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1276358022611028</v>
+        <v>0.131673622871023</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>393269</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>373260</v>
+        <v>372983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>409245</v>
+        <v>408092</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8819802191709936</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8371060528483328</v>
+        <v>0.8364851223759376</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9178109125796945</v>
+        <v>0.9152234679681464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>403</v>
@@ -6990,19 +6990,19 @@
         <v>438873</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>422014</v>
+        <v>424560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>450635</v>
+        <v>451007</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9093761767226535</v>
+        <v>0.9093761767226536</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8744420971974465</v>
+        <v>0.8797187574575377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9337482648061975</v>
+        <v>0.9345183403532982</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>651</v>
@@ -7011,19 +7011,19 @@
         <v>832142</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>809992</v>
+        <v>806243</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>855026</v>
+        <v>854695</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8962198664726546</v>
+        <v>0.8962198664726547</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8723641977388968</v>
+        <v>0.8683263771289772</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9208658251045022</v>
+        <v>0.9205099837820089</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>82242</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64819</v>
+        <v>65504</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>99924</v>
+        <v>100341</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1370874251266099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.108044625164461</v>
+        <v>0.1091875367184844</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1665603388280622</v>
+        <v>0.1672563641444359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>74</v>
@@ -7136,19 +7136,19 @@
         <v>54728</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>41722</v>
+        <v>44055</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67288</v>
+        <v>69056</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0901201604202887</v>
+        <v>0.09012016042028868</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06870253906222232</v>
+        <v>0.07254526760447158</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1108015684778919</v>
+        <v>0.1137132239504907</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -7157,19 +7157,19 @@
         <v>136970</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117146</v>
+        <v>116577</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159519</v>
+        <v>159310</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.1134606836971155</v>
+        <v>0.1134606836971156</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09703856124953791</v>
+        <v>0.09656730729479533</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1321393923492712</v>
+        <v>0.1319660188927662</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>517683</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>500001</v>
+        <v>499584</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535106</v>
+        <v>534421</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8629125748733901</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8334396611719378</v>
+        <v>0.8327436358555642</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.891955374835539</v>
+        <v>0.8908124632815156</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>751</v>
@@ -7207,19 +7207,19 @@
         <v>552554</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>539994</v>
+        <v>538226</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>565560</v>
+        <v>563227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9098798395797112</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8891984315221081</v>
+        <v>0.8862867760495095</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9312974609377775</v>
+        <v>0.9274547323955283</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1205</v>
@@ -7228,19 +7228,19 @@
         <v>1070236</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1047687</v>
+        <v>1047896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1090060</v>
+        <v>1090629</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8865393163028845</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8678606076507288</v>
+        <v>0.8680339811072337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9029614387504619</v>
+        <v>0.9034326927052047</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>103276</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>84471</v>
+        <v>86288</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>123683</v>
+        <v>122969</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1522569778797473</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1245328626796597</v>
+        <v>0.1272128216666555</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1823430437597363</v>
+        <v>0.1812899140465146</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>109</v>
@@ -7353,19 +7353,19 @@
         <v>69518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57125</v>
+        <v>57521</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>83141</v>
+        <v>82453</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09631785714566925</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07914651180911203</v>
+        <v>0.07969602640075361</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1151927565864643</v>
+        <v>0.1142392851922393</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>211</v>
@@ -7374,19 +7374,19 @@
         <v>172794</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>148533</v>
+        <v>150850</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>194704</v>
+        <v>196459</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1234192480303065</v>
+        <v>0.1234192480303066</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1060905169442253</v>
+        <v>0.1077457747426634</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1390687550777265</v>
+        <v>0.1403225845319269</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>575023</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>554616</v>
+        <v>555330</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>593828</v>
+        <v>592011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8477430221202527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8176569562402636</v>
+        <v>0.8187100859534839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8754671373203402</v>
+        <v>0.8727871783333444</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1008</v>
@@ -7424,19 +7424,19 @@
         <v>652239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>638616</v>
+        <v>639304</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>664632</v>
+        <v>664236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9036821428543307</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8848072434135361</v>
+        <v>0.8857607148077603</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9208534881908881</v>
+        <v>0.9203039735992464</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1547</v>
@@ -7445,19 +7445,19 @@
         <v>1227262</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1205352</v>
+        <v>1203597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1251523</v>
+        <v>1249206</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8765807519696933</v>
+        <v>0.8765807519696934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8609312449222736</v>
+        <v>0.8596774154680732</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8939094830557748</v>
+        <v>0.8922542252573366</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>122048</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104671</v>
+        <v>104501</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141275</v>
+        <v>140938</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2056909773953592</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1764051957467403</v>
+        <v>0.1761196111377712</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2380947785923587</v>
+        <v>0.2375277063964751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>140</v>
@@ -7570,19 +7570,19 @@
         <v>82314</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69276</v>
+        <v>69087</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95006</v>
+        <v>96036</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1381456281184526</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1162641477303138</v>
+        <v>0.115947763822845</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1594459805154566</v>
+        <v>0.1611751001963679</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>281</v>
@@ -7591,19 +7591,19 @@
         <v>204362</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>182160</v>
+        <v>183103</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>230253</v>
+        <v>230081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1718474811111164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1531779598114163</v>
+        <v>0.1539706959934865</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1936197851940955</v>
+        <v>0.1934745282277133</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>471307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>452080</v>
+        <v>452417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>488684</v>
+        <v>488854</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7943090226046409</v>
+        <v>0.7943090226046408</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7619052214076413</v>
+        <v>0.762472293603525</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8235948042532598</v>
+        <v>0.8238803888622287</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>841</v>
@@ -7641,19 +7641,19 @@
         <v>513535</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>500843</v>
+        <v>499813</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>526573</v>
+        <v>526762</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8618543718815473</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8405540194845431</v>
+        <v>0.838824899803632</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8837358522696861</v>
+        <v>0.8840522361771547</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1345</v>
@@ -7662,19 +7662,19 @@
         <v>984842</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>958951</v>
+        <v>959123</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1007044</v>
+        <v>1006101</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8281525188888834</v>
+        <v>0.8281525188888835</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8063802148059046</v>
+        <v>0.8065254717722866</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8468220401885838</v>
+        <v>0.8460293040065138</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>90799</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>77315</v>
+        <v>75855</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>105129</v>
+        <v>105110</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.228285919447557</v>
+        <v>0.2282859194475571</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1943842122785278</v>
+        <v>0.1907142302625423</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.264314158607893</v>
+        <v>0.2642647761219286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -7787,19 +7787,19 @@
         <v>67703</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57751</v>
+        <v>57240</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>79757</v>
+        <v>78772</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1578435199075819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1346418114465662</v>
+        <v>0.1334496720458004</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1859459055091977</v>
+        <v>0.1836489442340749</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>263</v>
@@ -7808,19 +7808,19 @@
         <v>158502</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>140122</v>
+        <v>142218</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>176601</v>
+        <v>176912</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1917362004012939</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.169502544469597</v>
+        <v>0.1720378534105625</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2136300876849322</v>
+        <v>0.2140057397413445</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>306945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>292615</v>
+        <v>292634</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>320429</v>
+        <v>321889</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7717140805524431</v>
+        <v>0.7717140805524429</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7356858413921069</v>
+        <v>0.7357352238780712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8056157877214721</v>
+        <v>0.8092857697374574</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>676</v>
@@ -7858,19 +7858,19 @@
         <v>361222</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>349168</v>
+        <v>350153</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>371174</v>
+        <v>371685</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8421564800924181</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8140540944908025</v>
+        <v>0.8163510557659254</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.865358188553434</v>
+        <v>0.8665503279542003</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1100</v>
@@ -7879,19 +7879,19 @@
         <v>668167</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>650068</v>
+        <v>649757</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>686547</v>
+        <v>684451</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.808263799598706</v>
+        <v>0.8082637995987059</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7863699123150675</v>
+        <v>0.7859942602586554</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8304974555304024</v>
+        <v>0.8279621465894376</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>74747</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62666</v>
+        <v>63927</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>87409</v>
+        <v>87998</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2471718639146369</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2072217311462384</v>
+        <v>0.2113927320961346</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2890427922893741</v>
+        <v>0.2909899663572363</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -8004,19 +8004,19 @@
         <v>84268</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>72454</v>
+        <v>73559</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>95869</v>
+        <v>96680</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1890322063970426</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.162530326567239</v>
+        <v>0.1650087488354699</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2150568636191325</v>
+        <v>0.2168762979172756</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>304</v>
@@ -8025,19 +8025,19 @@
         <v>159015</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>143503</v>
+        <v>141565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>175861</v>
+        <v>176913</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2125313667384147</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.191799217978624</v>
+        <v>0.1892081823079989</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2350460551057535</v>
+        <v>0.2364529069995906</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>227662</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>215000</v>
+        <v>214411</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>239743</v>
+        <v>238482</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.7528281360853631</v>
+        <v>0.7528281360853633</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7109572077106251</v>
+        <v>0.709010033642764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7927782688537613</v>
+        <v>0.7886072679038655</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>669</v>
@@ -8075,19 +8075,19 @@
         <v>361518</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>349917</v>
+        <v>349106</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>373332</v>
+        <v>372227</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8109677936029573</v>
+        <v>0.8109677936029576</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7849431363808673</v>
+        <v>0.7831237020827244</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8374696734327608</v>
+        <v>0.8349912511645301</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>992</v>
@@ -8096,19 +8096,19 @@
         <v>589181</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>572335</v>
+        <v>571283</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>604693</v>
+        <v>606631</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7874686332615853</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7649539448942462</v>
+        <v>0.7635470930004096</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8082007820213759</v>
+        <v>0.810791817692001</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>555917</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>513020</v>
+        <v>511926</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>600557</v>
+        <v>606991</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1636744613717</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1510447002460023</v>
+        <v>0.1507225441675172</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.176817551501335</v>
+        <v>0.1787117896407493</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>684</v>
@@ -8221,19 +8221,19 @@
         <v>417116</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>387219</v>
+        <v>385018</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>453430</v>
+        <v>450589</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.115052132409405</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1068058734028801</v>
+        <v>0.1061986092366892</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1250685676528706</v>
+        <v>0.1242849398652381</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1298</v>
@@ -8242,19 +8242,19 @@
         <v>973032</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>921430</v>
+        <v>921130</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1032799</v>
+        <v>1028680</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1385705656590152</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1312218907884132</v>
+        <v>0.131179106066219</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1470819403146666</v>
+        <v>0.1464954618856397</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2840562</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2795922</v>
+        <v>2789488</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2883459</v>
+        <v>2884553</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8363255386282998</v>
+        <v>0.8363255386282999</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8231824484986651</v>
+        <v>0.8212882103592505</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8489552997539976</v>
+        <v>0.8492774558324828</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4533</v>
@@ -8292,19 +8292,19 @@
         <v>3208332</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3172018</v>
+        <v>3174859</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3238229</v>
+        <v>3240430</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.884947867590595</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8749314323471291</v>
+        <v>0.8757150601347619</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8931941265971194</v>
+        <v>0.8938013907633109</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7171</v>
@@ -8313,19 +8313,19 @@
         <v>6048894</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5989127</v>
+        <v>5993246</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6100496</v>
+        <v>6100796</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.8614294343409848</v>
+        <v>0.8614294343409847</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8529180596853334</v>
+        <v>0.8535045381143602</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8687781092115867</v>
+        <v>0.8688208939337809</v>
       </c>
     </row>
     <row r="27">
